--- a/GEOL3140S19/01_PS_Darcy.xlsx
+++ b/GEOL3140S19/01_PS_Darcy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6600" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>Q=K(dh/dl)A</t>
-  </si>
   <si>
     <t xml:space="preserve">   diameter = </t>
   </si>
@@ -119,6 +116,9 @@
       </rPr>
       <t xml:space="preserve"> green cells. Note that the default values are 10.</t>
     </r>
+  </si>
+  <si>
+    <t>Q=-KA(dh/dl)</t>
   </si>
 </sst>
 </file>
@@ -960,7 +960,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +970,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -990,7 +990,7 @@
     </row>
     <row r="2" spans="1:16" ht="30.75" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
@@ -1028,7 +1028,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1048,7 +1048,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1086,7 +1086,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1106,13 +1106,13 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4">
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="5"/>
@@ -1130,7 +1130,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1140,7 +1140,7 @@
         <v>78.539816339744831</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1173,7 +1173,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1193,7 +1193,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1202,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1225,7 +1225,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1248,7 +1248,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1281,13 +1281,13 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1323,13 +1323,13 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
         <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1352,7 +1352,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1376,13 +1376,13 @@
         <v>1.2732395447351625</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1467,7 +1467,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1478,7 +1478,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1497,7 +1497,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -1571,7 +1571,7 @@
     <row r="30" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="19">
         <f>C26</f>
@@ -1582,7 +1582,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1596,7 +1596,7 @@
     <row r="31" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="21">
         <f>H27</f>
@@ -1622,7 +1622,7 @@
     <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="19">
         <f>(H20/H31)</f>
@@ -1645,7 +1645,7 @@
     <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="19">
         <f>M21</f>

--- a/GEOL3140S19/01_PS_Darcy.xlsx
+++ b/GEOL3140S19/01_PS_Darcy.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9240" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t xml:space="preserve">   diameter = </t>
   </si>
@@ -63,25 +64,13 @@
     <t>L</t>
   </si>
   <si>
-    <t>Q=</t>
-  </si>
-  <si>
     <t>K=</t>
   </si>
   <si>
-    <t>dh/dl=</t>
-  </si>
-  <si>
-    <t>A=</t>
-  </si>
-  <si>
     <t>Darcy's Law</t>
   </si>
   <si>
     <t>Note the change in dh as you fill in the green cells.</t>
-  </si>
-  <si>
-    <t>Step 4:  L =</t>
   </si>
   <si>
     <t>Step 3:  K =</t>
@@ -120,15 +109,43 @@
   <si>
     <t>Q=-KA(dh/dl)</t>
   </si>
+  <si>
+    <t>Q =</t>
+  </si>
+  <si>
+    <t>We will now keep the hydraulic gradient and K constant while changing A (the cross-sectional area through which water is flowing).</t>
+  </si>
+  <si>
+    <t>This will tell us how the cross-sectional area influences the volumetric flow rate (Q) through the column.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dh = </t>
+  </si>
+  <si>
+    <t>Enter K, dh, and dl from Part 1 Question 1</t>
+  </si>
+  <si>
+    <t>Enter pipe diameter to derive cross-sectional area and observe change to Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dl = </t>
+  </si>
+  <si>
+    <t>Step 4:  dl =</t>
+  </si>
+  <si>
+    <t>m3/d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +169,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +204,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,16 +260,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="11"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="11"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="11"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="11"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -242,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -269,21 +304,9 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -293,12 +316,42 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -694,6 +747,390 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2314575" y="5553075"/>
+          <a:ext cx="533400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Line 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7115175" y="5543550"/>
+          <a:ext cx="323850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="790575" y="5543550"/>
+          <a:ext cx="638175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Line 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8096250" y="5553075"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 9"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7086600" y="5048250"/>
+          <a:ext cx="76200" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Line 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="7134225" y="4838700"/>
+          <a:ext cx="409575" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Line 11"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="7534275" y="4591050"/>
+          <a:ext cx="523875" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Line 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7515225" y="4848225"/>
+          <a:ext cx="28575" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -959,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,8 +1406,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
-        <v>18</v>
+      <c r="A1" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -989,8 +1426,8 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
-        <v>26</v>
+      <c r="A2" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
@@ -1028,7 +1465,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1048,7 +1485,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1086,7 +1523,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1193,7 +1630,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1225,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1281,7 +1718,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4">
         <v>10</v>
@@ -1323,7 +1760,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4">
         <v>10</v>
@@ -1401,7 +1838,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="12">
+      <c r="M21" s="22">
         <f>G9</f>
         <v>78.539816339744831</v>
       </c>
@@ -1422,7 +1859,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="13"/>
+      <c r="M22" s="12"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1438,8 +1875,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1449,14 +1886,14 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1469,14 +1906,14 @@
       <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="9" t="s">
         <v>11</v>
       </c>
@@ -1488,21 +1925,21 @@
     <row r="26" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="15">
+      <c r="C26" s="21">
         <f>G14</f>
         <v>100</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="16" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15">
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="21">
         <f>C26</f>
         <v>100</v>
       </c>
@@ -1515,17 +1952,17 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="17">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="23">
         <f>$D$16</f>
         <v>10</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1536,14 +1973,14 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1570,13 +2007,8 @@
     </row>
     <row r="30" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="19">
-        <f>C26</f>
-        <v>100</v>
-      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1595,18 +2027,13 @@
     </row>
     <row r="31" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="21">
-        <f>H27</f>
-        <v>10</v>
-      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="18">
+      <c r="H31" s="24">
         <f>$D$18</f>
         <v>10</v>
       </c>
@@ -1621,14 +2048,9 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="19">
-        <f>(H20/H31)</f>
-        <v>0.12732395447351624</v>
-      </c>
-      <c r="D32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1644,13 +2066,8 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="19">
-        <f>M21</f>
-        <v>78.539816339744831</v>
-      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1806,4 +2223,838 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="26">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="27">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="27">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="18">
+        <f>((D13/2)^2)*PI()</f>
+        <v>78.539816339744831</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="20">
+        <f>D7*G14*(D8/D9)</f>
+        <v>785.39816339744834</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="28">
+        <f>(D17*86400)/10000</f>
+        <v>6785.8401317539547</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="19">
+        <f>D8</f>
+        <v>10</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="22">
+        <f>G14</f>
+        <v>78.539816339744831</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="21">
+        <f>D17</f>
+        <v>785.39816339744834</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="21">
+        <f>D17</f>
+        <v>785.39816339744834</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="25">
+        <f>D7</f>
+        <v>10</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="19">
+        <f>D9</f>
+        <v>10</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/GEOL3140S19/01_PS_Darcy.xlsx
+++ b/GEOL3140S19/01_PS_Darcy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="10560" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
